--- a/hw01-data/cls_monovar2.xlsx
+++ b/hw01-data/cls_monovar2.xlsx
@@ -16,6 +16,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
+    <t>Mean $\mu_{d|l_2}$</t>
+  </si>
+  <si>
+    <t>std $\sigma_{d|l_2}$</t>
+  </si>
+  <si>
+    <t>Skewness $\gamma_{d|l_2}$</t>
+  </si>
+  <si>
     <t>Signal (dBm)</t>
   </si>
   <si>
@@ -35,15 +44,6 @@
   </si>
   <si>
     <t>Call Test Setup Time (s)</t>
-  </si>
-  <si>
-    <t>Mean $\mu_{d|l_2}$</t>
-  </si>
-  <si>
-    <t>std $\sigma_{d|l_2}$</t>
-  </si>
-  <si>
-    <t>Skewness $\gamma_{d|l_2}$</t>
   </si>
 </sst>
 </file>
@@ -401,13 +401,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -417,94 +417,102 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="B2">
         <v>-76.05172413793103</v>
       </c>
       <c r="C2">
+        <v>13.36192865293307</v>
+      </c>
+      <c r="D2">
+        <v>-0.3908794549587692</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
         <v>12.87172413386148</v>
-      </c>
-      <c r="D2">
-        <v>543.4955172413792</v>
-      </c>
-      <c r="E2">
-        <v>94.61862068965517</v>
-      </c>
-      <c r="F2">
-        <v>0.9827586206896551</v>
-      </c>
-      <c r="G2">
-        <v>0.9827586206896551</v>
-      </c>
-      <c r="H2">
-        <v>2.888103448275862</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>13.36192865293307</v>
       </c>
       <c r="C3">
         <v>20.52256097376797</v>
       </c>
       <c r="D3">
+        <v>2.109487500434656</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>543.4955172413792</v>
+      </c>
+      <c r="C4">
         <v>843.054644813108</v>
-      </c>
-      <c r="E3">
-        <v>153.9876081987309</v>
-      </c>
-      <c r="F3">
-        <v>0.1313064328597226</v>
-      </c>
-      <c r="G3">
-        <v>0.2287555433395886</v>
-      </c>
-      <c r="H3">
-        <v>1.632483262745991</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>-0.3908794549587692</v>
-      </c>
-      <c r="C4">
-        <v>2.109487500434656</v>
       </c>
       <c r="D4">
         <v>3.122430614969682</v>
       </c>
-      <c r="E4">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>94.61862068965517</v>
+      </c>
+      <c r="C5">
+        <v>153.9876081987309</v>
+      </c>
+      <c r="D5">
         <v>5.189935597532647</v>
       </c>
-      <c r="F4">
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0.9827586206896551</v>
+      </c>
+      <c r="C6">
+        <v>0.1313064328597226</v>
+      </c>
+      <c r="D6">
         <v>-7.615773105863915</v>
       </c>
-      <c r="G4">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0.9827586206896551</v>
+      </c>
+      <c r="C7">
+        <v>0.2287555433395886</v>
+      </c>
+      <c r="D7">
         <v>-1.283287118765757</v>
       </c>
-      <c r="H4">
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>2.888103448275862</v>
+      </c>
+      <c r="C8">
+        <v>1.632483262745991</v>
+      </c>
+      <c r="D8">
         <v>-1.061203623652479</v>
       </c>
     </row>
